--- a/biology/Botanique/Akaniaceae/Akaniaceae.xlsx
+++ b/biology/Botanique/Akaniaceae/Akaniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Akaniaceae regroupe des plantes dicotylédones.
 L'espèce Akania bidwillii est un petit arbre aux feuilles parcheminées et au bois à odeur de navet, originaire de l'est de l'Australie.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Akania, dont l’origine est obscure. Il pourrait être l’association entre le préfixe privatif grec α- / a-, sans, et le mot grec  κανιά / kania, bractée, en référence à l’absence de stipule (bractée) à la base des tiges florales ou foliaires [1].
-Le genre a été décrit en 1862 par J. D. Hooker, lequel souligne cette absence de stipule à la base des feuilles (feuilles exstipulées)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Akania, dont l’origine est obscure. Il pourrait être l’association entre le préfixe privatif grec α- / a-, sans, et le mot grec  κανιά / kania, bractée, en référence à l’absence de stipule (bractée) à la base des tiges florales ou foliaires .
+Le genre a été décrit en 1862 par J. D. Hooker, lequel souligne cette absence de stipule à la base des feuilles (feuilles exstipulées).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification classique elle ne comprend qu'une espèce,  Akania bidwillii (en) (syn. Akania lucens).
-Pour la classification phylogénétique APG II (2003)[3] l'espèce Bretschneidera sinensis est optionnellement incluse dans cette famille. Elle en est parfois séparée et forme alors à elle seule la famille des Bretschneideraceae.
+Pour la classification phylogénétique APG II (2003) l'espèce Bretschneidera sinensis est optionnellement incluse dans cette famille. Elle en est parfois séparée et forme alors à elle seule la famille des Bretschneideraceae.
 </t>
         </is>
       </c>
@@ -576,13 +592,15 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans la famille Bretschneideraceae. Le genre Bretschneidera pour être précis.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010)[5], Angiosperm Phylogeny Website                        (15 juin 2010)[6] et NCBI  (15 juin 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Bretschneideraceae. Le genre Bretschneidera pour être précis.
+Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010), Angiosperm Phylogeny Website                        (15 juin 2010) et NCBI  (15 juin 2010) :
 Akania (en) Hook.f. (1862)
 Bretschneidera Hemsl. (1901)
-Selon DELTA Angio           (15 juin 2010)[8] :
+Selon DELTA Angio           (15 juin 2010) :
 Akania</t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010)[5] et NCBI  (15 juin 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010) et NCBI  (15 juin 2010) :
 genre Akania Hook.f. (1862)
 Akania bidwillii (Hend. ex Hogg) Mabb., Plant-book (1989)
 genre Bretschneidera Hemsl. (1901)
